--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SR_CSR_Arrays.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SR_CSR_Arrays.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8844_SR_CSR_Arrays1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8354255B-FD8E-45C0-BD3E-3455AFE65B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="27795" windowHeight="11565"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,24 +111,6 @@
     <t>=$Step2[2]</t>
   </si>
   <si>
-    <t>_res_.$Step3["Step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step3["Step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step4["Step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step4["Step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step5["Step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step5["Step2"]:Integer</t>
-  </si>
-  <si>
     <t>=someCalcSRArray(someValues)</t>
   </si>
   <si>
@@ -133,12 +121,30 @@
   </si>
   <si>
     <t>Spreadsheet Map someCalcSRArray_toMap_Single(SpreadsheetResult a)</t>
+  </si>
+  <si>
+    <t>_res_.$Step3["step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step3["step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step4["step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step4["step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step5["step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step5["step2"]:Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -200,7 +206,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -209,14 +215,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,9 +263,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,9 +298,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,9 +350,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,25 +542,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="59.3984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -525,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -533,12 +576,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -546,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -554,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -562,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -570,12 +613,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -583,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -591,12 +634,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -604,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -612,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -620,7 +663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -628,7 +671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -636,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -644,12 +687,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -657,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -665,58 +708,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -739,12 +782,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -752,23 +795,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>14</v>
       </c>
@@ -776,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -784,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -792,12 +835,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -805,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>7</v>
       </c>
@@ -813,58 +856,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>21</v>
       </c>
@@ -893,24 +936,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SR_CSR_Arrays.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SR_CSR_Arrays.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8844_SR_CSR_Arrays1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8354255B-FD8E-45C0-BD3E-3455AFE65B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="27795" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,6 +105,24 @@
     <t>=$Step2[2]</t>
   </si>
   <si>
+    <t>_res_.$Step3["Step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step3["Step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step4["Step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step4["Step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step5["Step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step5["Step2"]:Integer</t>
+  </si>
+  <si>
     <t>=someCalcSRArray(someValues)</t>
   </si>
   <si>
@@ -121,30 +133,12 @@
   </si>
   <si>
     <t>Spreadsheet Map someCalcSRArray_toMap_Single(SpreadsheetResult a)</t>
-  </si>
-  <si>
-    <t>_res_.$Step3["step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step3["step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step4["step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step4["step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step5["step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step5["step2"]:Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -206,7 +200,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -215,17 +209,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,9 +254,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,26 +289,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,26 +324,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,25 +499,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="59.3984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="59.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -568,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -576,12 +533,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -589,7 +546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -597,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -605,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -613,12 +570,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -626,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -634,12 +591,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -647,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -655,7 +612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -663,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -671,7 +628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -679,7 +636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -687,12 +644,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -700,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -708,58 +665,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
+      <c r="H37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>34</v>
       </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -782,12 +739,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -795,23 +752,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>14</v>
       </c>
@@ -819,7 +776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -827,7 +784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -835,12 +792,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -848,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>7</v>
       </c>
@@ -856,58 +813,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>23</v>
       </c>
       <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
         <v>33</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>23</v>
       </c>
       <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
         <v>33</v>
       </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>21</v>
       </c>
@@ -936,24 +893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
